--- a/dist/servinfo.xlsx
+++ b/dist/servinfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A559B1AF-A3D7-4D48-B4AE-94020323ED62}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E299EA50-F78E-4A28-9347-0FF9A561A4B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servinfo" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
-  <si>
-    <t>chengxi@xiron.net.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>serverip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,15 +59,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chenxx@xiron.net.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sx@xiron.net.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xuze@xiron.net.cn</t>
+    <t>xxx@xxx.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -445,27 +433,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5">
         <v>0.8</v>
@@ -485,7 +473,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>0.8</v>
@@ -515,7 +503,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -525,36 +513,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B204034B-EA6D-4C30-BA07-F05760A06AD2}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{63E0F047-C7FE-4B60-A82C-428DDB5DE233}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{A6C00137-3DD6-4190-B2FD-C2A8A376D734}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{0107A80D-2F6D-41AC-A764-A24464D34BCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -564,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFE8588-5C6A-4A7A-ABC7-734CD9E2E338}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -580,27 +559,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>0.1</v>
@@ -620,7 +599,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5">
         <v>0.8</v>
@@ -645,18 +624,18 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{5F16728B-22A7-44C4-B00C-BBD0B424234C}"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{C986AD6C-D5FE-4FBE-B8DE-A5351A409482}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
